--- a/Python/時數表.xlsx
+++ b/Python/時數表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EC019E-5132-46AE-A71E-5EABFA455816}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B197429-5238-49CD-8085-B95DBE06A12D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>迄分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -147,6 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -427,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -447,7 +452,9 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D1" s="5"/>
       <c r="F1" s="5"/>
     </row>
@@ -469,6 +476,46 @@
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Python/時數表.xlsx
+++ b/Python/時數表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B197429-5238-49CD-8085-B95DBE06A12D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2FA996-42C6-4BAE-AA46-67B8BD31BD1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
+    <t>曾閔歆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -480,43 +480,119 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>50</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="7">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Python/時數表.xlsx
+++ b/Python/時數表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2FA996-42C6-4BAE-AA46-67B8BD31BD1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C873672A-0CA3-4706-A76E-A009C3669596}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曾閔歆</t>
+    <t>游宗穎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -480,39 +480,39 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7">
         <v>18</v>
       </c>
-      <c r="C3" s="1">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E4" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2">
         <v>25</v>
@@ -520,42 +520,42 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>30</v>
       </c>
       <c r="E6" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">

--- a/Python/時數表.xlsx
+++ b/Python/時數表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C873672A-0CA3-4706-A76E-A009C3669596}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D332BCE-9B07-4C5E-987C-8C84738F0AAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>迄分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游宗穎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +431,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -452,9 +448,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="B1" s="5"/>
       <c r="D1" s="5"/>
       <c r="F1" s="5"/>
     </row>
@@ -479,84 +473,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>30</v>
-      </c>
-      <c r="E3" s="7">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>30</v>
-      </c>
-      <c r="E4" s="7">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2">
-        <v>25</v>
-      </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>30</v>
-      </c>
-      <c r="E5" s="7">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>30</v>
-      </c>
-      <c r="E6" s="7">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
